--- a/Web-App/test.xlsx
+++ b/Web-App/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AAD481-9903-4EEB-81FD-C98635A97503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -76,13 +77,16 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +123,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -165,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +209,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +261,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,136 +454,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -545,24 +614,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Web-App/test.xlsx
+++ b/Web-App/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AAD481-9903-4EEB-81FD-C98635A97503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E3C3A1-BF20-4116-BAAC-EE5939D0B3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>Satvik</t>
   </si>
   <si>
@@ -43,15 +37,6 @@
     <t>Shahrukh Khan</t>
   </si>
   <si>
-    <t>Place of Birth</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Marital Status</t>
-  </si>
-  <si>
     <t>Mumbai</t>
   </si>
   <si>
@@ -79,7 +64,22 @@
     <t>N</t>
   </si>
   <si>
-    <t>Id</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>place_of_birth</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>marital_status</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,22 +470,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -493,19 +493,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>55</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -513,19 +513,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -533,19 +533,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -553,19 +553,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -573,19 +573,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -593,19 +593,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Web-App/test.xlsx
+++ b/Web-App/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AAD481-9903-4EEB-81FD-C98635A97503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F24BAB2-2684-4CEF-89F1-9217D5F8C0A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="840" windowWidth="13065" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">

--- a/Web-App/test.xlsx
+++ b/Web-App/test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F24BAB2-2684-4CEF-89F1-9217D5F8C0A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4602F899-22A8-4567-87C4-E5EA5199B3CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="840" windowWidth="13065" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="13065" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
   <si>
     <t>Satvik</t>
   </si>
@@ -34,52 +28,121 @@
     <t>Ishaan</t>
   </si>
   <si>
-    <t>Aamir Khan</t>
-  </si>
-  <si>
-    <t>Salman</t>
-  </si>
-  <si>
-    <t>Shahrukh Khan</t>
-  </si>
-  <si>
-    <t>Place of Birth</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Marital Status</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
     <t>New Delhi</t>
   </si>
   <si>
-    <t>Indore</t>
-  </si>
-  <si>
     <t>Agra</t>
   </si>
   <si>
     <t>Vinukonda</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Id</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>place_of_birth</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>martial_status</t>
+  </si>
+  <si>
+    <t>Alisha</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Anjali</t>
+  </si>
+  <si>
+    <t>Anurag</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Apoorva</t>
+  </si>
+  <si>
+    <t>Muskan</t>
+  </si>
+  <si>
+    <t>Ghaziabad</t>
+  </si>
+  <si>
+    <t>Parth</t>
+  </si>
+  <si>
+    <t>Pradhi</t>
+  </si>
+  <si>
+    <t>Gaya, Bihar</t>
+  </si>
+  <si>
+    <t>Radhika</t>
+  </si>
+  <si>
+    <t>Riddika</t>
+  </si>
+  <si>
+    <t>Sayantan</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Sidhi</t>
+  </si>
+  <si>
+    <t>Trishant</t>
+  </si>
+  <si>
+    <t>Vibhuti</t>
+  </si>
+  <si>
+    <t>Mathura</t>
+  </si>
+  <si>
+    <t>Vikas</t>
+  </si>
+  <si>
+    <t>Vishant</t>
+  </si>
+  <si>
+    <t>Simran</t>
+  </si>
+  <si>
+    <t>Varanasi</t>
+  </si>
+  <si>
+    <t>Harshit Chaudhary</t>
+  </si>
+  <si>
+    <t>Akshita</t>
+  </si>
+  <si>
+    <t>Dehradun</t>
+  </si>
+  <si>
+    <t>Tushar</t>
+  </si>
+  <si>
+    <t>Dwarka</t>
   </si>
 </sst>
 </file>
@@ -455,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,22 +533,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -493,19 +556,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -513,19 +576,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -533,19 +596,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -553,19 +616,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -573,19 +636,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -593,22 +656,345 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>18</v>
       </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F23">
+    <sortCondition ref="B2:B23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Web-App/test.xlsx
+++ b/Web-App/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4602F899-22A8-4567-87C4-E5EA5199B3CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F6192D-FE01-4CF3-B92C-6221C1FA5BA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="13065" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
   <si>
     <t>Satvik</t>
   </si>
@@ -143,16 +143,93 @@
   </si>
   <si>
     <t>Dwarka</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2011.45.45%20PM.jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2010.42.35%20PM%20(7).jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2011.04.46%20PM%20(1).jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/FB_IMG_1610214853549.jpg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/Ish2.jpg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2010.44.51%20PM%20(1).jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2010.55.48%20PM%20(1).jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2010.57.59%20PM.jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/s6.jpg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/sat5.jpg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2010.42.35%20PM%20(4).jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2010.54.45%20PM%20(1).jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2010.42.35%20PM%20(11).jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2010.44.36%20PM.jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2010.54.03%20PM.jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2010.53.29%20PM.jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2011.22.58%20PM.jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2011.26.08%20PM.jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/IMG20201231162610.jpg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2010.58.42%20PM.jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2011.06.50%20PM%20(1).jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2010.44.27%20PM%20(1).jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,13 +252,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,9 +609,10 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="194.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -550,8 +631,11 @@
       <c r="F1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -570,8 +654,11 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -590,8 +677,11 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -610,8 +700,11 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -630,8 +723,11 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -650,8 +746,11 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -670,8 +769,11 @@
       <c r="F7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -690,8 +792,11 @@
       <c r="F8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -710,8 +815,11 @@
       <c r="F9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -730,8 +838,11 @@
       <c r="F10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -750,8 +861,11 @@
       <c r="F11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -770,8 +884,11 @@
       <c r="F12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -790,8 +907,11 @@
       <c r="F13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -810,8 +930,11 @@
       <c r="F14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -830,8 +953,11 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -850,8 +976,11 @@
       <c r="F16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -870,8 +999,11 @@
       <c r="F17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -890,8 +1022,11 @@
       <c r="F18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -910,8 +1045,11 @@
       <c r="F19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -930,8 +1068,11 @@
       <c r="F20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -950,8 +1091,11 @@
       <c r="F21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -970,8 +1114,11 @@
       <c r="F22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -989,12 +1136,39 @@
       </c>
       <c r="F23" t="s">
         <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F23">
     <sortCondition ref="B2:B23"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{DB320F9C-4AFC-434B-BB74-987949A24DA9}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{BFC03B31-C873-4EB1-8176-656A3A0BE886}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{1D7EE66B-309C-4EB4-B7E0-0D89299569DF}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{70EF0C9F-1465-4E6A-A53C-90621D5DAAC2}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{F3409A1A-A7E8-4DB6-8E09-94458566EBB3}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{6B2C52A8-0226-4DFA-A69B-366AB2CDA3E1}"/>
+    <hyperlink ref="G11" r:id="rId7" xr:uid="{A09D41EF-B5EE-4B6B-8A03-91DB77DD8ADB}"/>
+    <hyperlink ref="G13" r:id="rId8" xr:uid="{BB0D6FF6-BA1D-4605-921D-3163F3C1A3BD}"/>
+    <hyperlink ref="G14" r:id="rId9" xr:uid="{D68D7063-5CDE-4C13-BBC8-7153B279E350}"/>
+    <hyperlink ref="G15" r:id="rId10" xr:uid="{A5DAC8CC-EF32-4531-98C3-986A474D7DF9}"/>
+    <hyperlink ref="G16" r:id="rId11" xr:uid="{133D2ECA-1EBC-41EA-9BC8-2FF4F73D1EAC}"/>
+    <hyperlink ref="G17" r:id="rId12" xr:uid="{126EDAA6-87C6-4B54-A0D8-D24DBD805F03}"/>
+    <hyperlink ref="G19" r:id="rId13" xr:uid="{EABE95AA-3C4B-47C5-9E84-07D301296984}"/>
+    <hyperlink ref="G20" r:id="rId14" xr:uid="{11F33135-D240-4834-99C3-5B8BCCFE525A}"/>
+    <hyperlink ref="G21" r:id="rId15" xr:uid="{142CF18E-ACDD-4540-8D9C-B789B4CC88CB}"/>
+    <hyperlink ref="G22" r:id="rId16" xr:uid="{EA514198-E4FB-4555-8C3F-F930152AD990}"/>
+    <hyperlink ref="G23" r:id="rId17" xr:uid="{48F153E8-DA2F-4296-90F4-0DB6319ACEA5}"/>
+    <hyperlink ref="G18" r:id="rId18" xr:uid="{856A880B-4EC5-4C0E-ACA7-75B4C6FA64B5}"/>
+    <hyperlink ref="G10" r:id="rId19" xr:uid="{466219D8-CA10-4574-8DB3-783B81EE0018}"/>
+    <hyperlink ref="G4" r:id="rId20" xr:uid="{DE7F542C-17BB-49E4-B9C2-97634453F98B}"/>
+    <hyperlink ref="G6" r:id="rId21" xr:uid="{C2F3D45B-1CD1-4ACB-9924-A889047BD6D2}"/>
+    <hyperlink ref="G12" r:id="rId22" xr:uid="{FFC162D9-166E-4D35-AFB1-2C676D7C854D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Web-App/test.xlsx
+++ b/Web-App/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F6192D-FE01-4CF3-B92C-6221C1FA5BA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127B1ADE-BC87-423B-AC10-1EF804CFFE6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>gender</t>
   </si>
   <si>
-    <t>martial_status</t>
-  </si>
-  <si>
     <t>Alisha</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>https://firebasestorage.googleapis.com/v0/b/face-recognition-48ac3.appspot.com/o/WhatsApp%20Image%202021-01-09%20at%2010.44.27%20PM%20(1).jpeg?alt=media&amp;token=d4de9899-b24d-4207-991b-386dfa030e49</t>
+  </si>
+  <si>
+    <t>marital_status</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,10 +629,10 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,22 +640,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -663,22 +663,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -695,13 +695,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -718,13 +718,13 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -741,13 +741,13 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -764,13 +764,13 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -787,13 +787,13 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -801,22 +801,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>24</v>
@@ -833,13 +833,13 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -847,22 +847,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,22 +870,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>19</v>
@@ -902,13 +902,13 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -925,13 +925,13 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -948,13 +948,13 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -962,22 +962,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>22</v>
@@ -994,13 +994,13 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1008,22 +1008,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>21</v>
@@ -1040,13 +1040,13 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1054,22 +1054,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1077,22 +1077,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>24</v>
@@ -1109,13 +1109,13 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>21</v>
@@ -1132,13 +1132,13 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Web-App/test.xlsx
+++ b/Web-App/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127B1ADE-BC87-423B-AC10-1EF804CFFE6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923FE0C2-A96B-4954-B553-0F9BF8D02B3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,15 +604,15 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="194.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="194.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -635,7 +635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -658,7 +658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -681,7 +681,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -704,7 +704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -727,7 +727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -750,7 +750,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -773,7 +773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -796,7 +796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -842,7 +842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -865,7 +865,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -888,7 +888,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -911,7 +911,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -934,7 +934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -957,7 +957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -980,7 +980,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1179,7 +1179,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1191,7 +1191,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
